--- a/OPM经济数值/饰品.xlsx
+++ b/OPM经济数值/饰品.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A1548-7EE9-4BC3-AA62-76BAD656A4E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="2720" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>强化目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +67,190 @@
   </si>
   <si>
     <t>合成+强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <rPh sb="0" eb="1">
+      <t>du'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <rPh sb="0" eb="1">
+      <t>neng'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护罩</t>
+    <rPh sb="0" eb="1">
+      <t>hu'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利刃</t>
+    <rPh sb="0" eb="1">
+      <t>li'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀</t>
+    <rPh sb="0" eb="1">
+      <t>an'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂</t>
+    <rPh sb="0" eb="1">
+      <t>yao'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏</t>
+    <rPh sb="0" eb="1">
+      <t>wu'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑玉</t>
+    <rPh sb="0" eb="1">
+      <t>jian'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝焰</t>
+    <rPh sb="0" eb="1">
+      <t>lan'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+    <rPh sb="0" eb="1">
+      <t>li'zhua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack2</t>
+  </si>
+  <si>
+    <t>pack3</t>
+  </si>
+  <si>
+    <t>pack4</t>
+  </si>
+  <si>
+    <t>pack5</t>
+  </si>
+  <si>
+    <t>贯穿+{0}</t>
+  </si>
+  <si>
+    <t>普通攻击时，有{0}概率再进行1次普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击时，有{0}概率额外增加1点能量</t>
+  </si>
+  <si>
+    <t>伤害减免+{0}</t>
+  </si>
+  <si>
+    <t>基础防御+{0}</t>
+  </si>
+  <si>
+    <t>基础生命+{0}</t>
+  </si>
+  <si>
+    <t>暴击+{0}</t>
+  </si>
+  <si>
+    <t>基础攻击+{0}</t>
+  </si>
+  <si>
+    <t>每回合追打技能可触发次数+1</t>
+  </si>
+  <si>
+    <t>效果抵抗+{0}</t>
+  </si>
+  <si>
+    <t>被攻击时，反弹{0}伤害</t>
+  </si>
+  <si>
+    <t>坚毅+{0}</t>
+  </si>
+  <si>
+    <t>暴击抵抗+{0}</t>
+  </si>
+  <si>
+    <t>效果命中+{0}</t>
+  </si>
+  <si>
+    <t>暴击伤害+{0}</t>
+  </si>
+  <si>
+    <t>套装件数</t>
+  </si>
+  <si>
+    <t>效果</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +282,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,6 +318,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,21 +608,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="6" width="9" style="4"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="8.83203125" style="3"/>
+    <col min="4" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -480,7 +678,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -511,7 +709,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -542,7 +740,7 @@
         <v>14160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -573,7 +771,7 @@
         <v>22740</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -604,7 +802,7 @@
         <v>35250</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -635,7 +833,7 @@
         <v>53850</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -666,7 +864,7 @@
         <v>77250</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -697,7 +895,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -731,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -763,7 +961,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -795,7 +993,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -829,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -861,7 +1059,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -893,7 +1091,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -924,7 +1122,7 @@
         <v>3455880</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
@@ -946,4 +1144,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>201</v>
+      </c>
+      <c r="C2" s="6">
+        <v>202</v>
+      </c>
+      <c r="D2" s="7">
+        <v>203</v>
+      </c>
+      <c r="E2" s="6">
+        <v>204</v>
+      </c>
+      <c r="F2" s="6">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>206</v>
+      </c>
+      <c r="C3" s="6">
+        <v>207</v>
+      </c>
+      <c r="D3" s="6">
+        <v>208</v>
+      </c>
+      <c r="E3" s="6">
+        <v>209</v>
+      </c>
+      <c r="F3" s="6">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>211</v>
+      </c>
+      <c r="C4" s="6">
+        <v>212</v>
+      </c>
+      <c r="D4" s="6">
+        <v>213</v>
+      </c>
+      <c r="E4" s="6">
+        <v>214</v>
+      </c>
+      <c r="F4" s="6">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>216</v>
+      </c>
+      <c r="C5" s="6">
+        <v>217</v>
+      </c>
+      <c r="D5" s="6">
+        <v>218</v>
+      </c>
+      <c r="E5" s="6">
+        <v>219</v>
+      </c>
+      <c r="F5" s="6">
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>221</v>
+      </c>
+      <c r="C6" s="6">
+        <v>222</v>
+      </c>
+      <c r="D6" s="6">
+        <v>223</v>
+      </c>
+      <c r="E6" s="6">
+        <v>224</v>
+      </c>
+      <c r="F6" s="6">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>226</v>
+      </c>
+      <c r="C7" s="6">
+        <v>227</v>
+      </c>
+      <c r="D7" s="6">
+        <v>228</v>
+      </c>
+      <c r="E7" s="6">
+        <v>229</v>
+      </c>
+      <c r="F7" s="6">
+        <v>230</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>231</v>
+      </c>
+      <c r="C8" s="6">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7">
+        <v>233</v>
+      </c>
+      <c r="E8" s="6">
+        <v>234</v>
+      </c>
+      <c r="F8" s="6">
+        <v>235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>236</v>
+      </c>
+      <c r="C9" s="6">
+        <v>237</v>
+      </c>
+      <c r="D9" s="6">
+        <v>238</v>
+      </c>
+      <c r="E9" s="6">
+        <v>239</v>
+      </c>
+      <c r="F9" s="6">
+        <v>240</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>241</v>
+      </c>
+      <c r="C10" s="6">
+        <v>242</v>
+      </c>
+      <c r="D10" s="7">
+        <v>243</v>
+      </c>
+      <c r="E10" s="6">
+        <v>244</v>
+      </c>
+      <c r="F10" s="6">
+        <v>245</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>246</v>
+      </c>
+      <c r="C11" s="6">
+        <v>247</v>
+      </c>
+      <c r="D11" s="6">
+        <v>248</v>
+      </c>
+      <c r="E11" s="6">
+        <v>249</v>
+      </c>
+      <c r="F11" s="6">
+        <v>250</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>251</v>
+      </c>
+      <c r="C12" s="6">
+        <v>252</v>
+      </c>
+      <c r="D12" s="6">
+        <v>253</v>
+      </c>
+      <c r="E12" s="6">
+        <v>254</v>
+      </c>
+      <c r="F12" s="6">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>256</v>
+      </c>
+      <c r="C13" s="6">
+        <v>257</v>
+      </c>
+      <c r="D13" s="6">
+        <v>258</v>
+      </c>
+      <c r="E13" s="6">
+        <v>259</v>
+      </c>
+      <c r="F13" s="6">
+        <v>260</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>261</v>
+      </c>
+      <c r="C14" s="6">
+        <v>262</v>
+      </c>
+      <c r="D14" s="6">
+        <v>263</v>
+      </c>
+      <c r="E14" s="6">
+        <v>264</v>
+      </c>
+      <c r="F14" s="6">
+        <v>265</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>266</v>
+      </c>
+      <c r="C15" s="6">
+        <v>267</v>
+      </c>
+      <c r="D15" s="6">
+        <v>268</v>
+      </c>
+      <c r="E15" s="6">
+        <v>269</v>
+      </c>
+      <c r="F15" s="6">
+        <v>270</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>271</v>
+      </c>
+      <c r="C16" s="6">
+        <v>272</v>
+      </c>
+      <c r="D16" s="6">
+        <v>273</v>
+      </c>
+      <c r="E16" s="6">
+        <v>274</v>
+      </c>
+      <c r="F16" s="6">
+        <v>275</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OPM经济数值/饰品.xlsx
+++ b/OPM经济数值/饰品.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="2720" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-36760" yWindow="460" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>强化目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,90 @@
     <t>效果</t>
     <rPh sb="0" eb="1">
       <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serpent</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>konbu</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>katana</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>kabuto</t>
+  </si>
+  <si>
+    <t>bandage</t>
+  </si>
+  <si>
+    <t>kendama</t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>claw</t>
+  </si>
+  <si>
+    <t>套装id</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备id</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=套装id*100+星级*10+位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装</t>
+    <rPh sb="0" eb="1">
+      <t>tao'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <rPh sb="0" eb="1">
+      <t>xing'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +373,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,10 +405,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,9 +428,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +718,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1148,19 +1254,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" style="6"/>
     <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1182,8 +1289,11 @@
       <c r="H1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1318,14 @@
       <c r="H2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1234,8 +1350,14 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1260,8 +1382,14 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1414,14 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="8">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1312,8 +1446,14 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1338,8 +1478,14 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1364,8 +1510,14 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1390,8 +1542,14 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="8">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1416,8 +1574,14 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="8">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,8 +1606,14 @@
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="8">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1468,8 +1638,14 @@
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="8">
+        <v>11</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1670,14 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1520,8 +1702,14 @@
       <c r="H14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="8">
+        <v>13</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1546,8 +1734,14 @@
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="8">
+        <v>14</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1571,6 +1765,193 @@
       </c>
       <c r="H16">
         <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <f>B22*100+C22*10+D22</f>
+        <v>231</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>"equip,"&amp;E22</f>
+        <v>equip,231</v>
+      </c>
+      <c r="G22" t="str">
+        <f>F22</f>
+        <v>equip,231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23:E31" si="0">B23*100+C23*10+D23</f>
+        <v>232</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" ref="F23:F31" si="1">"equip,"&amp;E23</f>
+        <v>equip,232</v>
+      </c>
+      <c r="G23" t="str">
+        <f>G22&amp;";"&amp;F23</f>
+        <v>equip,231;equip,232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>equip,233</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24:G25" si="2">G23&amp;";"&amp;F24</f>
+        <v>equip,231;equip,232;equip,233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>equip,234</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>equip,231;equip,232;equip,233;equip,234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>equip,645</v>
+      </c>
+      <c r="G26" t="str">
+        <f>F26</f>
+        <v>equip,645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>equip,646</v>
+      </c>
+      <c r="G27" t="str">
+        <f>G26&amp;";"&amp;F27</f>
+        <v>equip,645;equip,646</v>
       </c>
     </row>
   </sheetData>
